--- a/EvaluationResults/Evaluation_Result_RQ2.xlsx
+++ b/EvaluationResults/Evaluation_Result_RQ2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10619\Desktop\openSource\Booster\EvaluationResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CCB7A0-A41D-47FA-9759-BFA56CBD4665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D329B42-F640-4D98-8AC3-DD4FA2571885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1946" yWindow="-18617" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1850" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -736,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T40" sqref="T2:T40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
@@ -3414,7 +3414,7 @@
         <v>3.6805868286199654</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:21" ht="15.3" x14ac:dyDescent="0.5">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -3422,11 +3422,6 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="9">
-        <f>H41/L41</f>
-        <v>24.395571055846162</v>
-      </c>
-      <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
@@ -3439,7 +3434,7 @@
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
     </row>
-    <row r="43" spans="1:21" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:21" ht="15.3" x14ac:dyDescent="0.5">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -3447,11 +3442,6 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="9">
-        <f>H41/P41</f>
-        <v>3.5860613930167227</v>
-      </c>
-      <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -3464,7 +3454,7 @@
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
     </row>
-    <row r="44" spans="1:21" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:21" ht="15.3" x14ac:dyDescent="0.5">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -3472,11 +3462,6 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="9">
-        <f>H41/T41</f>
-        <v>3.4816298866200053</v>
-      </c>
-      <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
